--- a/data/scheduling_DNN/predict/0.1/result2.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result2.xlsx
@@ -570,10 +570,10 @@
         <v>0.9916858673095703</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.5037086009979248</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0308368019759655</v>
+        <v>0.2381218075752258</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9211750030517578</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.5079031586647034</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2147542536258698</v>
+        <v>0.1707936227321625</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9280319213867188</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.4988598823547363</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2201450765132904</v>
+        <v>0.1841886341571808</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.889070987701416</v>
       </c>
       <c r="V5" t="n">
-        <v>0.561543881893158</v>
+        <v>0.5020571351051331</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1072740033268929</v>
+        <v>0.1497797220945358</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.888267993927002</v>
       </c>
       <c r="V6" t="n">
-        <v>0.57613205909729</v>
+        <v>0.4790096879005432</v>
       </c>
       <c r="W6" t="n">
-        <v>0.09742884337902069</v>
+        <v>0.1674923598766327</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>1.000292062759399</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.5314912796020508</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2467662990093231</v>
+        <v>0.2197741717100143</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8877770900726318</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.5132499933242798</v>
       </c>
       <c r="W8" t="n">
-        <v>0.07338798046112061</v>
+        <v>0.1402705460786819</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8811600208282471</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.9186012148857117</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1980499476194382</v>
+        <v>0.001401843037456274</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8736119270324707</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.5319583415985107</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1751265376806259</v>
+        <v>0.1167271733283997</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.9275040626525879</v>
       </c>
       <c r="V11" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.4881504774093628</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01336038112640381</v>
+        <v>0.1930315792560577</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.884213924407959</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.5105287432670593</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1712385565042496</v>
+        <v>0.1396406143903732</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8806459903717041</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.895060658454895</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1438589096069336</v>
+        <v>0.0002077826502500102</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8734869956970215</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.5083662271499634</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1023519709706306</v>
+        <v>0.1333131790161133</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9495861530303955</v>
       </c>
       <c r="V15" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.4802129864692688</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1077624931931496</v>
+        <v>0.220311164855957</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8761191368103027</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.4987728595733643</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1939238458871841</v>
+        <v>0.1423902064561844</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8905940055847168</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.9182530045509338</v>
       </c>
       <c r="W17" t="n">
-        <v>0.07251747697591782</v>
+        <v>0.0007650202023796737</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8991920948028564</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.5340288877487183</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1524734497070312</v>
+        <v>0.1333441734313965</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.9204249382019043</v>
       </c>
       <c r="V19" t="n">
-        <v>0.56818687915802</v>
+        <v>0.4747851490974426</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1240716502070427</v>
+        <v>0.1985948234796524</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8748209476470947</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.9686574935913086</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1041741594672203</v>
+        <v>0.008805297315120697</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8815410137176514</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.9798604846000671</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1667451858520508</v>
+        <v>0.009666718542575836</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5284049510955811</v>
       </c>
       <c r="V22" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.5033888220787048</v>
       </c>
       <c r="W22" t="n">
-        <v>0.008533913642168045</v>
+        <v>0.0006258066860027611</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5935308933258057</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.9122645854949951</v>
       </c>
       <c r="W23" t="n">
-        <v>0.00174756080377847</v>
+        <v>0.101591169834137</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5308539867401123</v>
       </c>
       <c r="V24" t="n">
-        <v>0.505409836769104</v>
+        <v>0.9256280064582825</v>
       </c>
       <c r="W24" t="n">
-        <v>0.000647404755000025</v>
+        <v>0.1558465212583542</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5214569568634033</v>
       </c>
       <c r="V25" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.4638420939445496</v>
       </c>
       <c r="W25" t="n">
-        <v>0.00942547433078289</v>
+        <v>0.003319472540169954</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5228891372680664</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.9526906609535217</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01885538548231125</v>
+        <v>0.1847293525934219</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.518895149230957</v>
       </c>
       <c r="V27" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.9240542054176331</v>
       </c>
       <c r="W27" t="n">
-        <v>0.02381687052547932</v>
+        <v>0.1641538590192795</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5213980674743652</v>
       </c>
       <c r="V28" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.4955535531044006</v>
       </c>
       <c r="W28" t="n">
-        <v>0.01880725845694542</v>
+        <v>0.0006679389043711126</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5304169654846191</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.5319923162460327</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0006811436032876372</v>
+        <v>2.481730007275473e-06</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5278398990631104</v>
       </c>
       <c r="V30" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.8797459006309509</v>
       </c>
       <c r="W30" t="n">
-        <v>0.001899917377158999</v>
+        <v>0.12383783608675</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5197110176086426</v>
       </c>
       <c r="V31" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.8800464272499084</v>
       </c>
       <c r="W31" t="n">
-        <v>0.009871507063508034</v>
+        <v>0.129841610789299</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5422959327697754</v>
       </c>
       <c r="V32" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.5315254926681519</v>
       </c>
       <c r="W32" t="n">
-        <v>0.03666090965270996</v>
+        <v>0.0001160023821284994</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5196170806884766</v>
       </c>
       <c r="V33" t="n">
-        <v>0.816550612449646</v>
+        <v>0.469716489315033</v>
       </c>
       <c r="W33" t="n">
-        <v>0.08816952258348465</v>
+        <v>0.002490069018676877</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5820798873901367</v>
       </c>
       <c r="V34" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.5313648581504822</v>
       </c>
       <c r="W34" t="n">
-        <v>0.001522193080745637</v>
+        <v>0.002572014229372144</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5236070156097412</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.4972851276397705</v>
       </c>
       <c r="W35" t="n">
-        <v>0.007670673076063395</v>
+        <v>0.0006928417715243995</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5195930004119873</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.925281822681427</v>
       </c>
       <c r="W36" t="n">
-        <v>0.007040760945528746</v>
+        <v>0.1645834147930145</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.517693042755127</v>
       </c>
       <c r="V37" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.5655801892280579</v>
       </c>
       <c r="W37" t="n">
-        <v>0.01639508455991745</v>
+        <v>0.00229317881166935</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5187339782714844</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.9186191558837891</v>
       </c>
       <c r="W38" t="n">
-        <v>0.00229828804731369</v>
+        <v>0.1599081605672836</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5755329132080078</v>
       </c>
       <c r="V39" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.4990067481994629</v>
       </c>
       <c r="W39" t="n">
-        <v>0.03862273320555687</v>
+        <v>0.005856254138052464</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5208890438079834</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.8830335736274719</v>
       </c>
       <c r="W40" t="n">
-        <v>0.002516494132578373</v>
+        <v>0.1311486661434174</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5241158008575439</v>
       </c>
       <c r="V41" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.4775981307029724</v>
       </c>
       <c r="W41" t="n">
-        <v>6.472326640505344e-05</v>
+        <v>0.002163893543183804</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3925778865814209</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.5314407348632812</v>
       </c>
       <c r="W42" t="n">
-        <v>0.06973058730363846</v>
+        <v>0.01928289048373699</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4156990051269531</v>
       </c>
       <c r="V43" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.8773957490921021</v>
       </c>
       <c r="W43" t="n">
-        <v>0.007721954490989447</v>
+        <v>0.2131638824939728</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3903460502624512</v>
       </c>
       <c r="V44" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.9626061320304871</v>
       </c>
       <c r="W44" t="n">
-        <v>0.05548764392733574</v>
+        <v>0.327481597661972</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.4438190460205078</v>
       </c>
       <c r="V45" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.9931573271751404</v>
       </c>
       <c r="W45" t="n">
-        <v>0.09614734351634979</v>
+        <v>0.3017725348472595</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3913009166717529</v>
       </c>
       <c r="V46" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.5281850099563599</v>
       </c>
       <c r="W46" t="n">
-        <v>0.03051124699413776</v>
+        <v>0.01873725466430187</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3969211578369141</v>
       </c>
       <c r="V47" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.973067581653595</v>
       </c>
       <c r="W47" t="n">
-        <v>0.05333322286605835</v>
+        <v>0.3319447040557861</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3907520771026611</v>
       </c>
       <c r="V48" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.8915019631385803</v>
       </c>
       <c r="W48" t="n">
-        <v>0.006755559705197811</v>
+        <v>0.2507504522800446</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3896410465240479</v>
       </c>
       <c r="V49" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.4709329009056091</v>
       </c>
       <c r="W49" t="n">
-        <v>0.02813338488340378</v>
+        <v>0.006608365569263697</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3947868347167969</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.493295431137085</v>
       </c>
       <c r="W50" t="n">
-        <v>0.005125013645738363</v>
+        <v>0.009703943505883217</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.4413139820098877</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.4802709221839905</v>
       </c>
       <c r="W51" t="n">
-        <v>0.01709320954978466</v>
+        <v>0.001517643220722675</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.391103982925415</v>
       </c>
       <c r="V52" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.4799773693084717</v>
       </c>
       <c r="W52" t="n">
-        <v>0.001980379456654191</v>
+        <v>0.007898478768765926</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3897881507873535</v>
       </c>
       <c r="V53" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.5003111958503723</v>
       </c>
       <c r="W53" t="n">
-        <v>0.02565735578536987</v>
+        <v>0.01221534330397844</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.389495849609375</v>
       </c>
       <c r="V54" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.9191084504127502</v>
       </c>
       <c r="W54" t="n">
-        <v>0.0046266820281744</v>
+        <v>0.2804895043373108</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.4282548427581787</v>
       </c>
       <c r="V55" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.4907205700874329</v>
       </c>
       <c r="W55" t="n">
-        <v>0.0009183911024592817</v>
+        <v>0.003901967080309987</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3909649848937988</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.5113003253936768</v>
       </c>
       <c r="W56" t="n">
-        <v>0.03426782041788101</v>
+        <v>0.0144805945456028</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.388045072555542</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.5654550790786743</v>
       </c>
       <c r="W57" t="n">
-        <v>0.007691845763474703</v>
+        <v>0.03147431090474129</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3997049331665039</v>
       </c>
       <c r="V58" t="n">
-        <v>0.458252340555191</v>
+        <v>0.8816937804222107</v>
       </c>
       <c r="W58" t="n">
-        <v>0.003427798859775066</v>
+        <v>0.2323132455348969</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.38932204246521</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.8877700567245483</v>
       </c>
       <c r="W59" t="n">
-        <v>0.004321848042309284</v>
+        <v>0.2484504282474518</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3894951343536377</v>
       </c>
       <c r="V60" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.8854643702507019</v>
       </c>
       <c r="W60" t="n">
-        <v>0.07158829271793365</v>
+        <v>0.2459854781627655</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3905701637268066</v>
       </c>
       <c r="V61" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.5101333856582642</v>
       </c>
       <c r="W61" t="n">
-        <v>0.002065846230834723</v>
+        <v>0.01429536379873753</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8709721565246582</v>
       </c>
       <c r="V62" t="n">
-        <v>0.551414966583252</v>
+        <v>0.8829500079154968</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1021168008446693</v>
+        <v>0.0001434689183952287</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.932124137878418</v>
       </c>
       <c r="V63" t="n">
-        <v>0.618610143661499</v>
+        <v>0.5129892230033875</v>
       </c>
       <c r="W63" t="n">
-        <v>0.09829102456569672</v>
+        <v>0.1756740808486938</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8726570606231689</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.5668626427650452</v>
       </c>
       <c r="W64" t="n">
-        <v>0.09236209839582443</v>
+        <v>0.0935102254152298</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8706390857696533</v>
       </c>
       <c r="V65" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.962278425693512</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1739394068717957</v>
+        <v>0.008397768251597881</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8687129020690918</v>
       </c>
       <c r="V66" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.5129055976867676</v>
       </c>
       <c r="W66" t="n">
-        <v>0.05902207642793655</v>
+        <v>0.1265988349914551</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.959338903427124</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.9272544384002686</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1678411215543747</v>
+        <v>0.001029412844218314</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8837869167327881</v>
       </c>
       <c r="V68" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.4784601926803589</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1816698610782623</v>
+        <v>0.1642897576093674</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.876384973526001</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.9631145596504211</v>
       </c>
       <c r="W69" t="n">
-        <v>0.09453440457582474</v>
+        <v>0.00752202095463872</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8652999401092529</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.5316077470779419</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1689194738864899</v>
+        <v>0.1113504767417908</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.9089839458465576</v>
       </c>
       <c r="V71" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.5649144649505615</v>
       </c>
       <c r="W71" t="n">
-        <v>0.165683701634407</v>
+        <v>0.1183838099241257</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8926680088043213</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.5311596393585205</v>
       </c>
       <c r="W72" t="n">
-        <v>0.208520695567131</v>
+        <v>0.1306882947683334</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8716881275177002</v>
       </c>
       <c r="V73" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.9340341687202454</v>
       </c>
       <c r="W73" t="n">
-        <v>0.1709151566028595</v>
+        <v>0.003887028899043798</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8626980781555176</v>
       </c>
       <c r="V74" t="n">
-        <v>0.56879723072052</v>
+        <v>0.9364249110221863</v>
       </c>
       <c r="W74" t="n">
-        <v>0.08637771010398865</v>
+        <v>0.005435646045953035</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8734109401702881</v>
       </c>
       <c r="V75" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.4722554683685303</v>
       </c>
       <c r="W75" t="n">
-        <v>0.06370740383863449</v>
+        <v>0.1609257161617279</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8689100742340088</v>
       </c>
       <c r="V76" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.8834988474845886</v>
       </c>
       <c r="W76" t="n">
-        <v>0.03234940394759178</v>
+        <v>0.0002128323103534058</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8892970085144043</v>
       </c>
       <c r="V77" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.9174221754074097</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1128907278180122</v>
+        <v>0.0007910249987617135</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.9593110084533691</v>
       </c>
       <c r="V78" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.8878474831581116</v>
       </c>
       <c r="W78" t="n">
-        <v>0.2380702197551727</v>
+        <v>0.005107035394757986</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8728041648864746</v>
       </c>
       <c r="V79" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.5314774513244629</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1651405096054077</v>
+        <v>0.1165039241313934</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8634531497955322</v>
       </c>
       <c r="V80" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.8932757973670959</v>
       </c>
       <c r="W80" t="n">
-        <v>0.151540070772171</v>
+        <v>0.0008893902995623648</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8643980026245117</v>
       </c>
       <c r="V81" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.8925129771232605</v>
       </c>
       <c r="W81" t="n">
-        <v>0.00227150903083384</v>
+        <v>0.0007904517697170377</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5424051284790039</v>
       </c>
       <c r="V82" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.9553306698799133</v>
       </c>
       <c r="W82" t="n">
-        <v>0.02121573686599731</v>
+        <v>0.1705075055360794</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5236480236053467</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.4873220920562744</v>
       </c>
       <c r="W83" t="n">
-        <v>0.002315433230251074</v>
+        <v>0.001319573260843754</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5245778560638428</v>
       </c>
       <c r="V84" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.4695868492126465</v>
       </c>
       <c r="W84" t="n">
-        <v>0.006412105169147253</v>
+        <v>0.003024010919034481</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5231480598449707</v>
       </c>
       <c r="V85" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.8810775876045227</v>
       </c>
       <c r="W85" t="n">
-        <v>0.01755958050489426</v>
+        <v>0.1281135529279709</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5167958736419678</v>
       </c>
       <c r="V86" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.4704580307006836</v>
       </c>
       <c r="W86" t="n">
-        <v>0.01866146922111511</v>
+        <v>0.002147195627912879</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5192520618438721</v>
       </c>
       <c r="V87" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.4860501289367676</v>
       </c>
       <c r="W87" t="n">
-        <v>0.01129791513085365</v>
+        <v>0.001102368347346783</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5455319881439209</v>
       </c>
       <c r="V88" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.5313556790351868</v>
       </c>
       <c r="W88" t="n">
-        <v>0.07433263212442398</v>
+        <v>0.0002009677409660071</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5186169147491455</v>
       </c>
       <c r="V89" t="n">
-        <v>0.390147477388382</v>
+        <v>0.5315086841583252</v>
       </c>
       <c r="W89" t="n">
-        <v>0.01650439575314522</v>
+        <v>0.0001661977148614824</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5207908153533936</v>
       </c>
       <c r="V90" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.8813470602035522</v>
       </c>
       <c r="W90" t="n">
-        <v>0.001031012274324894</v>
+        <v>0.1300007998943329</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5233290195465088</v>
       </c>
       <c r="V91" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.8803582787513733</v>
       </c>
       <c r="W91" t="n">
-        <v>0.01774993166327477</v>
+        <v>0.1274698972702026</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5206360816955566</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.4949681758880615</v>
       </c>
       <c r="W92" t="n">
-        <v>0.007205281406641006</v>
+        <v>0.0006588413962163031</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5774619579315186</v>
       </c>
       <c r="V93" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.8770719766616821</v>
       </c>
       <c r="W93" t="n">
-        <v>0.001929881051182747</v>
+        <v>0.08976615965366364</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5187199115753174</v>
       </c>
       <c r="V94" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.5128418803215027</v>
       </c>
       <c r="W94" t="n">
-        <v>0.01645194739103317</v>
+        <v>3.455125261098146e-05</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5224220752716064</v>
       </c>
       <c r="V95" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.9551699757575989</v>
       </c>
       <c r="W95" t="n">
-        <v>0.0004271428042557091</v>
+        <v>0.1872707456350327</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.519157886505127</v>
       </c>
       <c r="V96" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.5337788462638855</v>
       </c>
       <c r="W96" t="n">
-        <v>0.006957893259823322</v>
+        <v>0.0002137724659405649</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5225269794464111</v>
       </c>
       <c r="V97" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.883107602596283</v>
       </c>
       <c r="W97" t="n">
-        <v>0.0009622136130928993</v>
+        <v>0.1300183832645416</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5172939300537109</v>
       </c>
       <c r="V98" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.5320819616317749</v>
       </c>
       <c r="W98" t="n">
-        <v>0.09356210380792618</v>
+        <v>0.0002186858764616773</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5207340717315674</v>
       </c>
       <c r="V99" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.4873701333999634</v>
       </c>
       <c r="W99" t="n">
-        <v>0.004212711472064257</v>
+        <v>0.001113152364268899</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.524090051651001</v>
       </c>
       <c r="V100" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.5316707491874695</v>
       </c>
       <c r="W100" t="n">
-        <v>0.009390115737915039</v>
+        <v>5.746697570430115e-05</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5229711532592773</v>
       </c>
       <c r="V101" t="n">
-        <v>0.436027318239212</v>
+        <v>0.9100918769836426</v>
       </c>
       <c r="W101" t="n">
-        <v>0.007559230551123619</v>
+        <v>0.1498624533414841</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4033019542694092</v>
       </c>
       <c r="V102" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.48347008228302</v>
       </c>
       <c r="W102" t="n">
-        <v>0.04887328669428825</v>
+        <v>0.00642692856490612</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4017729759216309</v>
       </c>
       <c r="V103" t="n">
-        <v>0.473088413476944</v>
+        <v>0.5315986275672913</v>
       </c>
       <c r="W103" t="n">
-        <v>0.005085891578346491</v>
+        <v>0.01685469970107079</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4654269218444824</v>
       </c>
       <c r="V104" t="n">
-        <v>0.471180647611618</v>
+        <v>0.4805298447608948</v>
       </c>
       <c r="W104" t="n">
-        <v>3.310535976197571e-05</v>
+        <v>0.0002280982735101134</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.413193941116333</v>
       </c>
       <c r="V105" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.564830482006073</v>
       </c>
       <c r="W105" t="n">
-        <v>0.007302444893866777</v>
+        <v>0.02299364097416401</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3906929492950439</v>
       </c>
       <c r="V106" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.5662437677383423</v>
       </c>
       <c r="W106" t="n">
-        <v>0.02505146898329258</v>
+        <v>0.03081808984279633</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3898088932037354</v>
       </c>
       <c r="V107" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.8829095959663391</v>
       </c>
       <c r="W107" t="n">
-        <v>0.002746896352618933</v>
+        <v>0.2431482970714569</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3906929492950439</v>
       </c>
       <c r="V108" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.9411975145339966</v>
       </c>
       <c r="W108" t="n">
-        <v>0.05515795946121216</v>
+        <v>0.3030552864074707</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3907661437988281</v>
       </c>
       <c r="V109" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.5663244724273682</v>
       </c>
       <c r="W109" t="n">
-        <v>0.02683993056416512</v>
+        <v>0.03082072734832764</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.4159150123596191</v>
       </c>
       <c r="V110" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.8808236718177795</v>
       </c>
       <c r="W110" t="n">
-        <v>0.000404166872613132</v>
+        <v>0.2161400616168976</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3939800262451172</v>
       </c>
       <c r="V111" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.479871928691864</v>
       </c>
       <c r="W111" t="n">
-        <v>0.08456393331289291</v>
+        <v>0.00737741868942976</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4118061065673828</v>
       </c>
       <c r="V112" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.469015896320343</v>
       </c>
       <c r="W112" t="n">
-        <v>0.002943263156339526</v>
+        <v>0.003272959962487221</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3950960636138916</v>
       </c>
       <c r="V113" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.4726192951202393</v>
       </c>
       <c r="W113" t="n">
-        <v>0.02541489340364933</v>
+        <v>0.006009851582348347</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3940849304199219</v>
       </c>
       <c r="V114" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.4956231713294983</v>
       </c>
       <c r="W114" t="n">
-        <v>0.02505135536193848</v>
+        <v>0.01031001470983028</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3932480812072754</v>
       </c>
       <c r="V115" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.508303165435791</v>
       </c>
       <c r="W115" t="n">
-        <v>0.003641475224867463</v>
+        <v>0.0132376728579402</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3925919532775879</v>
       </c>
       <c r="V116" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.4706863164901733</v>
       </c>
       <c r="W116" t="n">
-        <v>0.003803899046033621</v>
+        <v>0.006098729558289051</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.394467830657959</v>
       </c>
       <c r="V117" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.4699155688285828</v>
       </c>
       <c r="W117" t="n">
-        <v>0.01206011977046728</v>
+        <v>0.005692361388355494</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4213120937347412</v>
       </c>
       <c r="V118" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.4899775981903076</v>
       </c>
       <c r="W118" t="n">
-        <v>0.00135997508186847</v>
+        <v>0.004714951384812593</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3931441307067871</v>
       </c>
       <c r="V119" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.941548228263855</v>
       </c>
       <c r="W119" t="n">
-        <v>0.0001901767391245812</v>
+        <v>0.3007470667362213</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3937721252441406</v>
       </c>
       <c r="V120" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.9501710534095764</v>
       </c>
       <c r="W120" t="n">
-        <v>0.004067657981067896</v>
+        <v>0.3095797598361969</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3959298133850098</v>
       </c>
       <c r="V121" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.4698147177696228</v>
       </c>
       <c r="W121" t="n">
-        <v>0.02742026187479496</v>
+        <v>0.005458978936076164</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.9389328956604004</v>
       </c>
       <c r="V122" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.4760311841964722</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1439423412084579</v>
+        <v>0.2142779976129532</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.8928558826446533</v>
       </c>
       <c r="V123" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.4867233633995056</v>
       </c>
       <c r="W123" t="n">
-        <v>0.1152722761034966</v>
+        <v>0.1649436205625534</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8712520599365234</v>
       </c>
       <c r="V124" t="n">
-        <v>0.43533855676651</v>
+        <v>0.8797408938407898</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1900205761194229</v>
+        <v>7.206029840745032e-05</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8765079975128174</v>
       </c>
       <c r="V125" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.4698126912117004</v>
       </c>
       <c r="W125" t="n">
-        <v>0.2080704569816589</v>
+        <v>0.1654010713100433</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.939467191696167</v>
       </c>
       <c r="V126" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.5040175914764404</v>
       </c>
       <c r="W126" t="n">
-        <v>0.2241689264774323</v>
+        <v>0.1896163523197174</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8783500194549561</v>
       </c>
       <c r="V127" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.4763147234916687</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1662046164274216</v>
+        <v>0.1616323739290237</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8748910427093506</v>
       </c>
       <c r="V128" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.5319784879684448</v>
       </c>
       <c r="W128" t="n">
-        <v>0.09332968294620514</v>
+        <v>0.1175890192389488</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8698959350585938</v>
       </c>
       <c r="V129" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.480965793132782</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1879433840513229</v>
+        <v>0.1512666493654251</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.9170200824737549</v>
       </c>
       <c r="V130" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.4973155856132507</v>
       </c>
       <c r="W130" t="n">
-        <v>0.03692079707980156</v>
+        <v>0.1761518716812134</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.877485990524292</v>
       </c>
       <c r="V131" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.9314939379692078</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1058709621429443</v>
+        <v>0.002916858298704028</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8765499591827393</v>
       </c>
       <c r="V132" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.5118608474731445</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1604723781347275</v>
+        <v>0.1329981535673141</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9003729820251465</v>
       </c>
       <c r="V133" t="n">
-        <v>0.504918098449707</v>
+        <v>0.5252729058265686</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1563845723867416</v>
+        <v>0.1407000720500946</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.9889321327209473</v>
       </c>
       <c r="V134" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.4989039301872253</v>
       </c>
       <c r="W134" t="n">
-        <v>0.2990986108779907</v>
+        <v>0.2401276379823685</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8949708938598633</v>
       </c>
       <c r="V135" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.5092340111732483</v>
       </c>
       <c r="W135" t="n">
-        <v>0.0680745467543602</v>
+        <v>0.1487929373979568</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8726749420166016</v>
       </c>
       <c r="V136" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.8759332299232483</v>
       </c>
       <c r="W136" t="n">
-        <v>0.06402379274368286</v>
+        <v>1.061643979483051e-05</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8729720115661621</v>
       </c>
       <c r="V137" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.5312833786010742</v>
       </c>
       <c r="W137" t="n">
-        <v>0.0619964636862278</v>
+        <v>0.1167511194944382</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.9146978855133057</v>
       </c>
       <c r="V138" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.4944077134132385</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1705024838447571</v>
+        <v>0.1766438335180283</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8773729801177979</v>
       </c>
       <c r="V139" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.4697548747062683</v>
       </c>
       <c r="W139" t="n">
-        <v>0.02061934769153595</v>
+        <v>0.1661525219678879</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8759720325469971</v>
       </c>
       <c r="V140" t="n">
-        <v>0.480756551027298</v>
+        <v>0.9448896050453186</v>
       </c>
       <c r="W140" t="n">
-        <v>0.1561952829360962</v>
+        <v>0.004749631974846125</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8754050731658936</v>
       </c>
       <c r="V141" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.9174185395240784</v>
       </c>
       <c r="W141" t="n">
-        <v>0.01874495856463909</v>
+        <v>0.001765131368301809</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5399000644683838</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.4818424582481384</v>
       </c>
       <c r="W142" t="n">
-        <v>0.01078947354108095</v>
+        <v>0.003370685735717416</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5236990451812744</v>
       </c>
       <c r="V143" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.9265879392623901</v>
       </c>
       <c r="W143" t="n">
-        <v>0.000387265783501789</v>
+        <v>0.1623194664716721</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5232110023498535</v>
       </c>
       <c r="V144" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.5103687644004822</v>
       </c>
       <c r="W144" t="n">
-        <v>0.002308932831510901</v>
+        <v>0.000164923068950884</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.519927978515625</v>
       </c>
       <c r="V145" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.8853926658630371</v>
       </c>
       <c r="W145" t="n">
-        <v>0.01998991705477238</v>
+        <v>0.1335644423961639</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5235288143157959</v>
       </c>
       <c r="V146" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.5656691789627075</v>
       </c>
       <c r="W146" t="n">
-        <v>0.02237649448215961</v>
+        <v>0.001775810378603637</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5909957885742188</v>
       </c>
       <c r="V147" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.8745276927947998</v>
       </c>
       <c r="W147" t="n">
-        <v>0.00121476361528039</v>
+        <v>0.08039034157991409</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5227761268615723</v>
       </c>
       <c r="V148" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.4807913899421692</v>
       </c>
       <c r="W148" t="n">
-        <v>0.008981615304946899</v>
+        <v>0.001762718078680336</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5235641002655029</v>
       </c>
       <c r="V149" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.5819547176361084</v>
       </c>
       <c r="W149" t="n">
-        <v>0.01011546887457371</v>
+        <v>0.003409464145079255</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5246720314025879</v>
       </c>
       <c r="V150" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.4864919781684875</v>
       </c>
       <c r="W150" t="n">
-        <v>0.002475747605785728</v>
+        <v>0.00145771645475179</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5201470851898193</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.4973256587982178</v>
       </c>
       <c r="W151" t="n">
-        <v>0.003138276282697916</v>
+        <v>0.00052081752801314</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5376501083374023</v>
       </c>
       <c r="V152" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.4952302575111389</v>
       </c>
       <c r="W152" t="n">
-        <v>0.006711945869028568</v>
+        <v>0.001799443736672401</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5202908515930176</v>
       </c>
       <c r="V153" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.5650277733802795</v>
       </c>
       <c r="W153" t="n">
-        <v>0.01914889737963676</v>
+        <v>0.002001392189413309</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5224850177764893</v>
       </c>
       <c r="V154" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.5652719140052795</v>
       </c>
       <c r="W154" t="n">
-        <v>0.0007960554794408381</v>
+        <v>0.001830718480050564</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.525230884552002</v>
       </c>
       <c r="V155" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.4744015336036682</v>
       </c>
       <c r="W155" t="n">
-        <v>0.002370790811255574</v>
+        <v>0.002583622932434082</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5228221416473389</v>
       </c>
       <c r="V156" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.4803085327148438</v>
       </c>
       <c r="W156" t="n">
-        <v>0.0146131869405508</v>
+        <v>0.001807406893931329</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5226728916168213</v>
       </c>
       <c r="V157" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.4770280718803406</v>
       </c>
       <c r="W157" t="n">
-        <v>0.008851421996951103</v>
+        <v>0.002083449624478817</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5214531421661377</v>
       </c>
       <c r="V158" t="n">
-        <v>0.551807165145874</v>
+        <v>0.4784537553787231</v>
       </c>
       <c r="W158" t="n">
-        <v>0.0009213667362928391</v>
+        <v>0.001848947256803513</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5248031616210938</v>
       </c>
       <c r="V159" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.9103625416755676</v>
       </c>
       <c r="W159" t="n">
-        <v>0.01065271627157927</v>
+        <v>0.148656040430069</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5237479209899902</v>
       </c>
       <c r="V160" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.5542052984237671</v>
       </c>
       <c r="W160" t="n">
-        <v>0.01431683730334044</v>
+        <v>0.0009276518248952925</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5237541198730469</v>
       </c>
       <c r="V161" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.9326186776161194</v>
       </c>
       <c r="W161" t="n">
-        <v>0.04357059299945831</v>
+        <v>0.1671702265739441</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3977518081665039</v>
       </c>
       <c r="V162" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.9174287915229797</v>
       </c>
       <c r="W162" t="n">
-        <v>0.06801745295524597</v>
+        <v>0.2700641751289368</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.4476318359375</v>
       </c>
       <c r="V163" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.5098513960838318</v>
       </c>
       <c r="W163" t="n">
-        <v>0.05639592185616493</v>
+        <v>0.003871273715049028</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3946318626403809</v>
       </c>
       <c r="V164" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.4706664681434631</v>
       </c>
       <c r="W164" t="n">
-        <v>0.05320770293474197</v>
+        <v>0.005781261250376701</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3954398632049561</v>
       </c>
       <c r="V165" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.5043255686759949</v>
       </c>
       <c r="W165" t="n">
-        <v>0.0254922229796648</v>
+        <v>0.01185609679669142</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.401526927947998</v>
       </c>
       <c r="V166" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.8687769174575806</v>
       </c>
       <c r="W166" t="n">
-        <v>0.05022823438048363</v>
+        <v>0.2183225452899933</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.5442850589752197</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.4746848344802856</v>
       </c>
       <c r="W167" t="n">
-        <v>0.001408380456268787</v>
+        <v>0.004844191018491983</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3942511081695557</v>
       </c>
       <c r="V168" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.4773908853530884</v>
       </c>
       <c r="W168" t="n">
-        <v>0.06981056928634644</v>
+        <v>0.006912222597748041</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.4507031440734863</v>
       </c>
       <c r="V169" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.8794698119163513</v>
       </c>
       <c r="W169" t="n">
-        <v>2.034615135926288e-05</v>
+        <v>0.1838408559560776</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.396899938583374</v>
       </c>
       <c r="V170" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.5538598299026489</v>
       </c>
       <c r="W170" t="n">
-        <v>0.02399344183504581</v>
+        <v>0.02463640831410885</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3937578201293945</v>
       </c>
       <c r="V171" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.4944172501564026</v>
       </c>
       <c r="W171" t="n">
-        <v>0.06241979822516441</v>
+        <v>0.01013232115656137</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3956081867218018</v>
       </c>
       <c r="V172" t="n">
-        <v>0.624763011932373</v>
+        <v>0.4797860383987427</v>
       </c>
       <c r="W172" t="n">
-        <v>0.05251193419098854</v>
+        <v>0.007085910532623529</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.395007848739624</v>
       </c>
       <c r="V173" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.4881539940834045</v>
       </c>
       <c r="W173" t="n">
-        <v>0.03016240522265434</v>
+        <v>0.008676204830408096</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4033420085906982</v>
       </c>
       <c r="V174" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.5320346355438232</v>
       </c>
       <c r="W174" t="n">
-        <v>0.003018621355295181</v>
+        <v>0.01656179130077362</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.4185419082641602</v>
       </c>
       <c r="V175" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.512751042842865</v>
       </c>
       <c r="W175" t="n">
-        <v>0.001230996451340616</v>
+        <v>0.008875360712409019</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3974418640136719</v>
       </c>
       <c r="V176" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.4864686131477356</v>
       </c>
       <c r="W176" t="n">
-        <v>0.001493544201366603</v>
+        <v>0.007925761863589287</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4206490516662598</v>
       </c>
       <c r="V177" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.5546979308128357</v>
       </c>
       <c r="W177" t="n">
-        <v>0.05399554967880249</v>
+        <v>0.01796910166740417</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3943798542022705</v>
       </c>
       <c r="V178" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.472804844379425</v>
       </c>
       <c r="W178" t="n">
-        <v>0.0001453074510209262</v>
+        <v>0.006150478962808847</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3962619304656982</v>
       </c>
       <c r="V179" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.566531777381897</v>
       </c>
       <c r="W179" t="n">
-        <v>0.004884873516857624</v>
+        <v>0.0289918202906847</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.4160609245300293</v>
       </c>
       <c r="V180" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.4725357294082642</v>
       </c>
       <c r="W180" t="n">
-        <v>0.007723494432866573</v>
+        <v>0.003189403563737869</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4114670753479004</v>
       </c>
       <c r="V181" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.8815627694129944</v>
       </c>
       <c r="W181" t="n">
-        <v>0.008505068719387054</v>
+        <v>0.2209899574518204</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8887379169464111</v>
       </c>
       <c r="V182" t="n">
-        <v>0.436014860868454</v>
+        <v>0.9644573926925659</v>
       </c>
       <c r="W182" t="n">
-        <v>0.2049581706523895</v>
+        <v>0.005733439233154058</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8711669445037842</v>
       </c>
       <c r="V183" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.916721522808075</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1741802394390106</v>
+        <v>0.00207521952688694</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8774189949035645</v>
       </c>
       <c r="V184" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.4866572022438049</v>
       </c>
       <c r="W184" t="n">
-        <v>0.1609946489334106</v>
+        <v>0.1526947766542435</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.9477601051330566</v>
       </c>
       <c r="V185" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.4796113967895508</v>
       </c>
       <c r="W185" t="n">
-        <v>0.04668848589062691</v>
+        <v>0.2191632091999054</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.875478982925415</v>
       </c>
       <c r="V186" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.4702121019363403</v>
       </c>
       <c r="W186" t="n">
-        <v>0.06321994215250015</v>
+        <v>0.1642412394285202</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8856179714202881</v>
       </c>
       <c r="V187" t="n">
-        <v>0.569115161895752</v>
+        <v>0.5577157735824585</v>
       </c>
       <c r="W187" t="n">
-        <v>0.1001740321516991</v>
+        <v>0.1075198501348495</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.874830961227417</v>
       </c>
       <c r="V188" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.5133542418479919</v>
       </c>
       <c r="W188" t="n">
-        <v>0.06206077337265015</v>
+        <v>0.1306654214859009</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.936460018157959</v>
       </c>
       <c r="V189" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.4881132841110229</v>
       </c>
       <c r="W189" t="n">
-        <v>0.2378895878791809</v>
+        <v>0.2010147869586945</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8793559074401855</v>
       </c>
       <c r="V190" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.4852126240730286</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1778558790683746</v>
+        <v>0.155348926782608</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8943660259246826</v>
       </c>
       <c r="V191" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.4973989129066467</v>
       </c>
       <c r="W191" t="n">
-        <v>0.1066940873861313</v>
+        <v>0.1575828939676285</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.873978853225708</v>
       </c>
       <c r="V192" t="n">
-        <v>0.473930835723877</v>
+        <v>0.9340082406997681</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1600384116172791</v>
+        <v>0.003603527322411537</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.9335060119628906</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.4816808104515076</v>
       </c>
       <c r="W193" t="n">
-        <v>0.2472073137760162</v>
+        <v>0.2041460126638412</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8959450721740723</v>
       </c>
       <c r="V194" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.9780377745628357</v>
       </c>
       <c r="W194" t="n">
-        <v>0.005963548552244902</v>
+        <v>0.006739211734384298</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8701391220092773</v>
       </c>
       <c r="V195" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.5314112305641174</v>
       </c>
       <c r="W195" t="n">
-        <v>0.05200201645493507</v>
+        <v>0.1147365868091583</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8728771209716797</v>
       </c>
       <c r="V196" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.4933990240097046</v>
       </c>
       <c r="W196" t="n">
-        <v>0.003179689636453986</v>
+        <v>0.1440036296844482</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.970879077911377</v>
       </c>
       <c r="V197" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.4885069727897644</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1560692489147186</v>
+        <v>0.232682853937149</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8842751979827881</v>
       </c>
       <c r="V198" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.8742192387580872</v>
       </c>
       <c r="W198" t="n">
-        <v>0.1764918267726898</v>
+        <v>0.0001011223139357753</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8763120174407959</v>
       </c>
       <c r="V199" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.8765135407447815</v>
       </c>
       <c r="W199" t="n">
-        <v>0.2474446296691895</v>
+        <v>4.061164204927081e-08</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8683688640594482</v>
       </c>
       <c r="V200" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.4746264815330505</v>
       </c>
       <c r="W200" t="n">
-        <v>0.2287432700395584</v>
+        <v>0.155033066868782</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.9519839286804199</v>
       </c>
       <c r="V201" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.8928070068359375</v>
       </c>
       <c r="W201" t="n">
-        <v>0.2440796792507172</v>
+        <v>0.003501908155158162</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5467689037322998</v>
       </c>
       <c r="V202" t="n">
-        <v>0.551541268825531</v>
+        <v>0.9326103925704956</v>
       </c>
       <c r="W202" t="n">
-        <v>2.277546809636988e-05</v>
+        <v>0.1488736569881439</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5952198505401611</v>
       </c>
       <c r="V203" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.9822009205818176</v>
       </c>
       <c r="W203" t="n">
-        <v>0.003828794229775667</v>
+        <v>0.1497543454170227</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5840129852294922</v>
       </c>
       <c r="V204" t="n">
-        <v>0.474732518196106</v>
+        <v>0.8806882500648499</v>
       </c>
       <c r="W204" t="n">
-        <v>0.01194222085177898</v>
+        <v>0.08801621198654175</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.525346040725708</v>
       </c>
       <c r="V205" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.4872347712516785</v>
       </c>
       <c r="W205" t="n">
-        <v>0.009833642281591892</v>
+        <v>0.001452468917705119</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5240237712860107</v>
       </c>
       <c r="V206" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.4734304547309875</v>
       </c>
       <c r="W206" t="n">
-        <v>0.01006240025162697</v>
+        <v>0.002559683751314878</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5269229412078857</v>
       </c>
       <c r="V207" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.5048590898513794</v>
       </c>
       <c r="W207" t="n">
-        <v>0.001637773006223142</v>
+        <v>0.0004868135438300669</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5223240852355957</v>
       </c>
       <c r="V208" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.5642222762107849</v>
       </c>
       <c r="W208" t="n">
-        <v>0.01045193802565336</v>
+        <v>0.001755458419211209</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5264570713043213</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.477067768573761</v>
       </c>
       <c r="W209" t="n">
-        <v>0.0009151353733614087</v>
+        <v>0.002439303323626518</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5314280986785889</v>
       </c>
       <c r="V210" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.5127843618392944</v>
       </c>
       <c r="W210" t="n">
-        <v>0.001393655897118151</v>
+        <v>0.0003475889097899199</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5871717929840088</v>
       </c>
       <c r="V211" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.5313749313354492</v>
       </c>
       <c r="W211" t="n">
-        <v>0.02284595929086208</v>
+        <v>0.003113289829343557</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5258448123931885</v>
       </c>
       <c r="V212" t="n">
-        <v>0.475897878408432</v>
+        <v>0.8650581240653992</v>
       </c>
       <c r="W212" t="n">
-        <v>0.002494696294888854</v>
+        <v>0.1150656715035439</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5282390117645264</v>
       </c>
       <c r="V213" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.9536124467849731</v>
       </c>
       <c r="W213" t="n">
-        <v>0.004981419537216425</v>
+        <v>0.180942565202713</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5271289348602295</v>
       </c>
       <c r="V214" t="n">
-        <v>0.476378470659256</v>
+        <v>0.5645794272422791</v>
       </c>
       <c r="W214" t="n">
-        <v>0.002575609600171447</v>
+        <v>0.001402539433911443</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5255260467529297</v>
       </c>
       <c r="V215" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.5131682753562927</v>
       </c>
       <c r="W215" t="n">
-        <v>0.02151552960276604</v>
+        <v>0.000152714506839402</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5622489452362061</v>
       </c>
       <c r="V216" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.5821428298950195</v>
       </c>
       <c r="W216" t="n">
-        <v>0.006646961905062199</v>
+        <v>0.000395766634028405</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5448958873748779</v>
       </c>
       <c r="V217" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.8812212347984314</v>
       </c>
       <c r="W217" t="n">
-        <v>0.005460679065436125</v>
+        <v>0.1131147369742393</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5228350162506104</v>
       </c>
       <c r="V218" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.4725092053413391</v>
       </c>
       <c r="W218" t="n">
-        <v>0.004237604327499866</v>
+        <v>0.002532687271013856</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5254170894622803</v>
       </c>
       <c r="V219" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.5129261016845703</v>
       </c>
       <c r="W219" t="n">
-        <v>0.08211413770914078</v>
+        <v>0.0001560247765155509</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5275909900665283</v>
       </c>
       <c r="V220" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.4804908633232117</v>
       </c>
       <c r="W220" t="n">
-        <v>0.009246389381587505</v>
+        <v>0.002218422014266253</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5326099395751953</v>
       </c>
       <c r="V221" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.8801915049552917</v>
       </c>
       <c r="W221" t="n">
-        <v>0.08189313858747482</v>
+        <v>0.1208129450678825</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3943140506744385</v>
       </c>
       <c r="V222" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.9086815118789673</v>
       </c>
       <c r="W222" t="n">
-        <v>0.0002490394981577992</v>
+        <v>0.264573872089386</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3931200504302979</v>
       </c>
       <c r="V223" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.9773536324501038</v>
       </c>
       <c r="W223" t="n">
-        <v>0.01701201125979424</v>
+        <v>0.341328889131546</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3973660469055176</v>
       </c>
       <c r="V224" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.5661903023719788</v>
       </c>
       <c r="W224" t="n">
-        <v>0.0003816746466327459</v>
+        <v>0.02850162982940674</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3935370445251465</v>
       </c>
       <c r="V225" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.470037043094635</v>
       </c>
       <c r="W225" t="n">
-        <v>0.03356027603149414</v>
+        <v>0.005852249916642904</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3957359790802002</v>
       </c>
       <c r="V226" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.4768720865249634</v>
       </c>
       <c r="W226" t="n">
-        <v>0.1772536486387253</v>
+        <v>0.006583068054169416</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3999121189117432</v>
       </c>
       <c r="V227" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.4803820848464966</v>
       </c>
       <c r="W227" t="n">
-        <v>0.06600996106863022</v>
+        <v>0.006475415546447039</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4120779037475586</v>
       </c>
       <c r="V228" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.8808348774909973</v>
       </c>
       <c r="W228" t="n">
-        <v>0.05602940171957016</v>
+        <v>0.2197331041097641</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.3984589576721191</v>
       </c>
       <c r="V229" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.9323287606239319</v>
       </c>
       <c r="W229" t="n">
-        <v>0.06870421022176743</v>
+        <v>0.2850169539451599</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3956389427185059</v>
       </c>
       <c r="V230" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.47568678855896</v>
       </c>
       <c r="W230" t="n">
-        <v>0.05255871266126633</v>
+        <v>0.006407657638192177</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3974850177764893</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.4862879514694214</v>
       </c>
       <c r="W231" t="n">
-        <v>0.00200026435777545</v>
+        <v>0.00788596086204052</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.399616003036499</v>
       </c>
       <c r="V232" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.8807158470153809</v>
       </c>
       <c r="W232" t="n">
-        <v>0.06825375556945801</v>
+        <v>0.2314570546150208</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3987529277801514</v>
       </c>
       <c r="V233" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.4918854236602783</v>
       </c>
       <c r="W233" t="n">
-        <v>0.001405668444931507</v>
+        <v>0.008673661388456821</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.452409029006958</v>
       </c>
       <c r="V234" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.5085600614547729</v>
       </c>
       <c r="W234" t="n">
-        <v>0.0002818441425915807</v>
+        <v>0.003152938559651375</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4006381034851074</v>
       </c>
       <c r="V235" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.960744321346283</v>
       </c>
       <c r="W235" t="n">
-        <v>0.002996870316565037</v>
+        <v>0.3137189745903015</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3996059894561768</v>
       </c>
       <c r="V236" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.4810307621955872</v>
       </c>
       <c r="W236" t="n">
-        <v>0.02749403938651085</v>
+        <v>0.006629993673413992</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3946049213409424</v>
       </c>
       <c r="V237" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.4773759245872498</v>
       </c>
       <c r="W237" t="n">
-        <v>0.001715271850116551</v>
+        <v>0.00685103889554739</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3952510356903076</v>
       </c>
       <c r="V238" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.4853935241699219</v>
       </c>
       <c r="W238" t="n">
-        <v>0.003997649531811476</v>
+        <v>0.00812566839158535</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3937821388244629</v>
       </c>
       <c r="V239" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.9002630710601807</v>
       </c>
       <c r="W239" t="n">
-        <v>0.001784358057193458</v>
+        <v>0.256522923707962</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.4432170391082764</v>
       </c>
       <c r="V240" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.5831370949745178</v>
       </c>
       <c r="W240" t="n">
-        <v>0.02610257640480995</v>
+        <v>0.01957762241363525</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3973960876464844</v>
       </c>
       <c r="V241" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.5315657258033752</v>
       </c>
       <c r="W241" t="n">
-        <v>0.0514129213988781</v>
+        <v>0.01800149120390415</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8966381549835205</v>
       </c>
       <c r="V242" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.5546606183052063</v>
       </c>
       <c r="W242" t="n">
-        <v>0.2121770530939102</v>
+        <v>0.1169486343860626</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8819739818572998</v>
       </c>
       <c r="V243" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.4783643484115601</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1743896454572678</v>
+        <v>0.1629007309675217</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>1.420722007751465</v>
       </c>
       <c r="V244" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.4916700124740601</v>
       </c>
       <c r="W244" t="n">
-        <v>0.7535159587860107</v>
+        <v>0.8631376028060913</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.9113409519195557</v>
       </c>
       <c r="V245" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.4736860394477844</v>
       </c>
       <c r="W245" t="n">
-        <v>0.2259258031845093</v>
+        <v>0.1915418207645416</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.878180980682373</v>
       </c>
       <c r="V246" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.8660851716995239</v>
       </c>
       <c r="W246" t="n">
-        <v>0.06280560791492462</v>
+        <v>0.0001463085936848074</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8846957683563232</v>
       </c>
       <c r="V247" t="n">
-        <v>0.624285101890564</v>
+        <v>0.5133745670318604</v>
       </c>
       <c r="W247" t="n">
-        <v>0.06781371682882309</v>
+        <v>0.1378794312477112</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.9451801776885986</v>
       </c>
       <c r="V248" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.565102219581604</v>
       </c>
       <c r="W248" t="n">
-        <v>0.2310591191053391</v>
+        <v>0.1444592475891113</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8970258235931396</v>
       </c>
       <c r="V249" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.5313624143600464</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1783677637577057</v>
+        <v>0.133709728717804</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8848540782928467</v>
       </c>
       <c r="V250" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.494817852973938</v>
       </c>
       <c r="W250" t="n">
-        <v>0.06810346990823746</v>
+        <v>0.1521282643079758</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8989179134368896</v>
       </c>
       <c r="V251" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.9223470091819763</v>
       </c>
       <c r="W251" t="n">
-        <v>0.214270606637001</v>
+        <v>0.0005489225150085986</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8949408531188965</v>
       </c>
       <c r="V252" t="n">
-        <v>0.435836523771286</v>
+        <v>0.5122528076171875</v>
       </c>
       <c r="W252" t="n">
-        <v>0.2107767909765244</v>
+        <v>0.1464501470327377</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8837718963623047</v>
       </c>
       <c r="V253" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.5122515559196472</v>
       </c>
       <c r="W253" t="n">
-        <v>0.003677047789096832</v>
+        <v>0.1380273699760437</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8889861106872559</v>
       </c>
       <c r="V254" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.4867289662361145</v>
       </c>
       <c r="W254" t="n">
-        <v>0.1505164504051208</v>
+        <v>0.1618108153343201</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8846259117126465</v>
       </c>
       <c r="V255" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.4770616888999939</v>
       </c>
       <c r="W255" t="n">
-        <v>0.004655093420296907</v>
+        <v>0.1661085933446884</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.9144301414489746</v>
       </c>
       <c r="V256" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.48027104139328</v>
       </c>
       <c r="W256" t="n">
-        <v>0.2012436389923096</v>
+        <v>0.1884941309690475</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8886289596557617</v>
       </c>
       <c r="V257" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.8670809864997864</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1614877283573151</v>
+        <v>0.000464315147837624</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8732168674468994</v>
       </c>
       <c r="V258" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.4801748991012573</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1718835085630417</v>
+        <v>0.1544819921255112</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8916809558868408</v>
       </c>
       <c r="V259" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.5127872228622437</v>
       </c>
       <c r="W259" t="n">
-        <v>0.114591546356678</v>
+        <v>0.143560454249382</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8843059539794922</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.4798243641853333</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1623460501432419</v>
+        <v>0.1636053621768951</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8851749897003174</v>
       </c>
       <c r="V261" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.4742856621742249</v>
       </c>
       <c r="W261" t="n">
-        <v>0.0808100700378418</v>
+        <v>0.1688300371170044</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.551753044128418</v>
       </c>
       <c r="V262" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.4741438031196594</v>
       </c>
       <c r="W262" t="n">
-        <v>0.003159642452374101</v>
+        <v>0.006023194175213575</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5495140552520752</v>
       </c>
       <c r="V263" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.4956864714622498</v>
       </c>
       <c r="W263" t="n">
-        <v>0.008288577198982239</v>
+        <v>0.002897408790886402</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5789151191711426</v>
       </c>
       <c r="V264" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.5113577246665955</v>
       </c>
       <c r="W264" t="n">
-        <v>0.0009924140758812428</v>
+        <v>0.004564001690596342</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5321547985076904</v>
       </c>
       <c r="V265" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.9003716111183167</v>
       </c>
       <c r="W265" t="n">
-        <v>0.003390415105968714</v>
+        <v>0.1355836242437363</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5266609191894531</v>
       </c>
       <c r="V266" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.4770421385765076</v>
       </c>
       <c r="W266" t="n">
-        <v>0.009495297446846962</v>
+        <v>0.00246202340349555</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5650289058685303</v>
       </c>
       <c r="V267" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.496847927570343</v>
       </c>
       <c r="W267" t="n">
-        <v>0.03483861312270164</v>
+        <v>0.004648645874112844</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5281529426574707</v>
       </c>
       <c r="V268" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.9155229330062866</v>
       </c>
       <c r="W268" t="n">
-        <v>0.08066238462924957</v>
+        <v>0.1500555127859116</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5819990634918213</v>
       </c>
       <c r="V269" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.4709184169769287</v>
       </c>
       <c r="W269" t="n">
-        <v>0.0008636972052045166</v>
+        <v>0.01233891025185585</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5360510349273682</v>
       </c>
       <c r="V270" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.886609673500061</v>
       </c>
       <c r="W270" t="n">
-        <v>0.04428039491176605</v>
+        <v>0.1228913590312004</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5286731719970703</v>
       </c>
       <c r="V271" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.9283309578895569</v>
       </c>
       <c r="W271" t="n">
-        <v>0.008165864273905754</v>
+        <v>0.1597263514995575</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.543071985244751</v>
       </c>
       <c r="V272" t="n">
-        <v>0.812067985534668</v>
+        <v>0.9758425951004028</v>
       </c>
       <c r="W272" t="n">
-        <v>0.07235884666442871</v>
+        <v>0.1872904002666473</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5315060615539551</v>
       </c>
       <c r="V273" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.531372606754303</v>
       </c>
       <c r="W273" t="n">
-        <v>0.0002780813083518296</v>
+        <v>1.781018355018205e-08</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5337588787078857</v>
       </c>
       <c r="V274" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.4703935980796814</v>
       </c>
       <c r="W274" t="n">
-        <v>0.02256670407950878</v>
+        <v>0.004015158861875534</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5289969444274902</v>
       </c>
       <c r="V275" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.4868481755256653</v>
       </c>
       <c r="W275" t="n">
-        <v>0.0163960624486208</v>
+        <v>0.001776518765836954</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5275859832763672</v>
       </c>
       <c r="V276" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.5100587010383606</v>
       </c>
       <c r="W276" t="n">
-        <v>0.008385587483644485</v>
+        <v>0.0003072056279052049</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5296249389648438</v>
       </c>
       <c r="V277" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.4992108345031738</v>
       </c>
       <c r="W277" t="n">
-        <v>0.002168482169508934</v>
+        <v>0.0009250177536159754</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5280420780181885</v>
       </c>
       <c r="V278" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.5315859317779541</v>
       </c>
       <c r="W278" t="n">
-        <v>0.0004572194011416286</v>
+        <v>1.255889947060496e-05</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5275411605834961</v>
       </c>
       <c r="V279" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.8749237060546875</v>
       </c>
       <c r="W279" t="n">
-        <v>0.0006656148470938206</v>
+        <v>0.1206746324896812</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5287988185882568</v>
       </c>
       <c r="V280" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.4979296922683716</v>
       </c>
       <c r="W280" t="n">
-        <v>0.04769314453005791</v>
+        <v>0.0009529029484838247</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5344681739807129</v>
       </c>
       <c r="V281" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.9323938488960266</v>
       </c>
       <c r="W281" t="n">
-        <v>0.01527572423219681</v>
+        <v>0.1583448499441147</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4190528392791748</v>
       </c>
       <c r="V282" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.5314574837684631</v>
       </c>
       <c r="W282" t="n">
-        <v>0.001508512883447111</v>
+        <v>0.01263480447232723</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4036459922790527</v>
       </c>
       <c r="V283" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.5128995180130005</v>
       </c>
       <c r="W283" t="n">
-        <v>0.06411799788475037</v>
+        <v>0.01193633303046227</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4000530242919922</v>
       </c>
       <c r="V284" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.9143802523612976</v>
       </c>
       <c r="W284" t="n">
-        <v>0.1057005152106285</v>
+        <v>0.2645325064659119</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4007430076599121</v>
       </c>
       <c r="V285" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.5661516189575195</v>
       </c>
       <c r="W285" t="n">
-        <v>0.02969184331595898</v>
+        <v>0.02736000902950764</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4022669792175293</v>
       </c>
       <c r="V286" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.9882149696350098</v>
       </c>
       <c r="W286" t="n">
-        <v>0.009786366485059261</v>
+        <v>0.3433350622653961</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4026319980621338</v>
       </c>
       <c r="V287" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.9312922358512878</v>
       </c>
       <c r="W287" t="n">
-        <v>0.05811700224876404</v>
+        <v>0.2794816493988037</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4033751487731934</v>
       </c>
       <c r="V288" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.4775379300117493</v>
       </c>
       <c r="W288" t="n">
-        <v>0.004540644120424986</v>
+        <v>0.005500118248164654</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4058449268341064</v>
       </c>
       <c r="V289" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.4773250222206116</v>
       </c>
       <c r="W289" t="n">
-        <v>0.1093840450048447</v>
+        <v>0.005109404213726521</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3982319831848145</v>
       </c>
       <c r="V290" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.5119600296020508</v>
       </c>
       <c r="W290" t="n">
-        <v>0.001398036140017211</v>
+        <v>0.01293406821787357</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4024550914764404</v>
       </c>
       <c r="V291" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.5626797080039978</v>
       </c>
       <c r="W291" t="n">
-        <v>0.007200854830443859</v>
+        <v>0.02567192725837231</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4079198837280273</v>
       </c>
       <c r="V292" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.4816357493400574</v>
       </c>
       <c r="W292" t="n">
-        <v>0.02061893604695797</v>
+        <v>0.005434028804302216</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4028410911560059</v>
       </c>
       <c r="V293" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.9091398119926453</v>
       </c>
       <c r="W293" t="n">
-        <v>0.04768158867955208</v>
+        <v>0.2563383877277374</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3979809284210205</v>
       </c>
       <c r="V294" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.8956025242805481</v>
       </c>
       <c r="W294" t="n">
-        <v>0.02899965643882751</v>
+        <v>0.2476272583007812</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3985970020294189</v>
       </c>
       <c r="V295" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.4817550778388977</v>
       </c>
       <c r="W295" t="n">
-        <v>0.003485677065327764</v>
+        <v>0.006915265694260597</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3992249965667725</v>
       </c>
       <c r="V296" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.53158038854599</v>
       </c>
       <c r="W296" t="n">
-        <v>0.1741086393594742</v>
+        <v>0.01751795038580894</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4122500419616699</v>
       </c>
       <c r="V297" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.8822478055953979</v>
       </c>
       <c r="W297" t="n">
-        <v>0.008447393774986267</v>
+        <v>0.2208978980779648</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4023230075836182</v>
       </c>
       <c r="V298" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.497556209564209</v>
       </c>
       <c r="W298" t="n">
-        <v>0.1119029000401497</v>
+        <v>0.009069362655282021</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4112908840179443</v>
       </c>
       <c r="V299" t="n">
-        <v>0.630542516708374</v>
+        <v>0.470409095287323</v>
       </c>
       <c r="W299" t="n">
-        <v>0.04807128012180328</v>
+        <v>0.003494962817057967</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4020810127258301</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.903229832649231</v>
       </c>
       <c r="W300" t="n">
-        <v>0.001151718432083726</v>
+        <v>0.2511501312255859</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4020869731903076</v>
       </c>
       <c r="V301" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.8809242844581604</v>
       </c>
       <c r="W301" t="n">
-        <v>0.003092107595875859</v>
+        <v>0.2292851656675339</v>
       </c>
     </row>
     <row r="302" spans="1:23">
